--- a/CodeSystem-FHIR-version.xlsx
+++ b/CodeSystem-FHIR-version.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -30,415 +30,418 @@
     <t>Version</t>
   </si>
   <si>
+    <t>0.0.1-snapshot-3</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FHIRVersion</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023-03-25T23:21:02-05:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Infrastructure</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>All published FHIR Versions.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/FHIR-version</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Compositional</t>
+  </si>
+  <si>
+    <t>Version Needed?</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Supplements</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Oldest archived version of FHIR.</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>1st Draft for Comment (Sept 2012 Ballot).</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>2nd Draft for Comment (January 2013 Ballot).</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>DSTU 1 Ballot version.</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>DSTU 1 version.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.0.80</t>
+  </si>
+  <si>
+    <t>DSTU 1 Official version.</t>
+  </si>
+  <si>
+    <t>0.0.81</t>
+  </si>
+  <si>
+    <t>DSTU 1 Official version Technical Errata #1.</t>
+  </si>
+  <si>
+    <t>0.0.82</t>
+  </si>
+  <si>
+    <t>DSTU 1 Official version Technical Errata #2.</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>January 2015 Ballot.</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>Draft For Comment (January 2015 Ballot).</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>May 2015 Ballot.</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>DSTU 2 Ballot version (May 2015 Ballot).</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>DSTU 2 version.</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>DSTU 2 QA Preview + CQIF Ballot (Sep 2015).</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>DSTU 2 (Official version).</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>DSTU 2 (Official version) with 1 technical errata.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>GAO Ballot version.</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>GAO Ballot + draft changes to main FHIR standard.</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Connectathon 12 (Montreal) version.</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>CQF on FHIR Ballot + Connectathon 12 (Montreal).</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Connectathon 13 (Baltimore) version.</t>
+  </si>
+  <si>
+    <t>1.6.0</t>
+  </si>
+  <si>
+    <t>FHIR STU3 Ballot + Connectathon 13 (Baltimore).</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Connectathon 14 (San Antonio) version.</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>FHIR STU3 Candidate + Connectathon 14 (San Antonio).</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>STU3 version.</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>FHIR Release 3 (STU).</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
+    <t>FHIR Release 3 (STU) with 1 technical errata.</t>
+  </si>
+  <si>
+    <t>3.0.2</t>
+  </si>
+  <si>
+    <t>FHIR Release 3 (STU) with 2 technical errata.</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>R4 Ballot #1 version.</t>
+  </si>
+  <si>
+    <t>3.3.0</t>
+  </si>
+  <si>
+    <t>R4 Ballot #1 + Connectaton 18 (Cologne).</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>R4 Ballot #2 version.</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>R4 Ballot #2 + Connectathon 19 (Baltimore).</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>R4 version.</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>FHIR Release 4 (Normative + STU).</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>FHIR Release 4 (Normative + STU) with 1 technical errata.</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>R4B Ballot #1 version.</t>
+  </si>
+  <si>
+    <t>4.1.0</t>
+  </si>
+  <si>
+    <t>R4B Ballot #1 + Connectathon 27 (Virtual).</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>R5 Preview #1 version.</t>
+  </si>
+  <si>
+    <t>4.2.0</t>
+  </si>
+  <si>
+    <t>R5 Preview #1 + Connectathon 23 (Sydney).</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>R4B version.</t>
+  </si>
+  <si>
+    <t>4.3.0</t>
+  </si>
+  <si>
+    <t>FHIR Release 4B (Normative + STU).</t>
+  </si>
+  <si>
+    <t>4.3.0-cibuild</t>
+  </si>
+  <si>
+    <t>FHIR Release 4B CI-Builld.</t>
+  </si>
+  <si>
+    <t>4.3.0-snapshot1</t>
+  </si>
+  <si>
+    <t>FHIR Release 4B Snapshot #1.</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>R5 Preview #2 version.</t>
+  </si>
+  <si>
+    <t>4.4.0</t>
+  </si>
+  <si>
+    <t>R5 Preview #2 + Connectathon 24 (Virtual).</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>R5 Preview #3 version.</t>
+  </si>
+  <si>
+    <t>4.5.0</t>
+  </si>
+  <si>
+    <t>R5 Preview #3 + Connectathon 25 (Virtual).</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>R5 Draft Ballot version.</t>
+  </si>
+  <si>
+    <t>4.6.0</t>
+  </si>
+  <si>
+    <t>R5 Draft Ballot + Connectathon 27 (Virtual).</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>R5 Versions.</t>
+  </si>
+  <si>
     <t>5.0.0</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>FHIRVersion</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-03-25T23:21:02-05:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 International / Terminology Infrastructure</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>HL7 International / Terminology Infrastructure (http://www.hl7.org/Special/committees/Vocab)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>All published FHIR Versions.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/FHIR-version|4.0.1</t>
-  </si>
-  <si>
-    <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>Compositional</t>
-  </si>
-  <si>
-    <t>Version Needed?</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>Supplements</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>Oldest archived version of FHIR.</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>1st Draft for Comment (Sept 2012 Ballot).</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>2nd Draft for Comment (January 2013 Ballot).</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>DSTU 1 Ballot version.</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>DSTU 1 version.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.0.80</t>
-  </si>
-  <si>
-    <t>DSTU 1 Official version.</t>
-  </si>
-  <si>
-    <t>0.0.81</t>
-  </si>
-  <si>
-    <t>DSTU 1 Official version Technical Errata #1.</t>
-  </si>
-  <si>
-    <t>0.0.82</t>
-  </si>
-  <si>
-    <t>DSTU 1 Official version Technical Errata #2.</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>January 2015 Ballot.</t>
-  </si>
-  <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
-    <t>Draft For Comment (January 2015 Ballot).</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>May 2015 Ballot.</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
-  </si>
-  <si>
-    <t>DSTU 2 Ballot version (May 2015 Ballot).</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>DSTU 2 version.</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>DSTU 2 QA Preview + CQIF Ballot (Sep 2015).</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
-  </si>
-  <si>
-    <t>DSTU 2 (Official version).</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
-    <t>DSTU 2 (Official version) with 1 technical errata.</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>GAO Ballot version.</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>GAO Ballot + draft changes to main FHIR standard.</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Connectathon 12 (Montreal) version.</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>CQF on FHIR Ballot + Connectathon 12 (Montreal).</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>Connectathon 13 (Baltimore) version.</t>
-  </si>
-  <si>
-    <t>1.6.0</t>
-  </si>
-  <si>
-    <t>FHIR STU3 Ballot + Connectathon 13 (Baltimore).</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>Connectathon 14 (San Antonio) version.</t>
-  </si>
-  <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
-    <t>FHIR STU3 Candidate + Connectathon 14 (San Antonio).</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>STU3 version.</t>
-  </si>
-  <si>
-    <t>3.0.0</t>
-  </si>
-  <si>
-    <t>FHIR Release 3 (STU).</t>
-  </si>
-  <si>
-    <t>3.0.1</t>
-  </si>
-  <si>
-    <t>FHIR Release 3 (STU) with 1 technical errata.</t>
-  </si>
-  <si>
-    <t>3.0.2</t>
-  </si>
-  <si>
-    <t>FHIR Release 3 (STU) with 2 technical errata.</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>R4 Ballot #1 version.</t>
-  </si>
-  <si>
-    <t>3.3.0</t>
-  </si>
-  <si>
-    <t>R4 Ballot #1 + Connectaton 18 (Cologne).</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>R4 Ballot #2 version.</t>
-  </si>
-  <si>
-    <t>3.5.0</t>
-  </si>
-  <si>
-    <t>R4 Ballot #2 + Connectathon 19 (Baltimore).</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>R4 version.</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>FHIR Release 4 (Normative + STU).</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>FHIR Release 4 (Normative + STU) with 1 technical errata.</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>R4B Ballot #1 version.</t>
-  </si>
-  <si>
-    <t>4.1.0</t>
-  </si>
-  <si>
-    <t>R4B Ballot #1 + Connectathon 27 (Virtual).</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>R5 Preview #1 version.</t>
-  </si>
-  <si>
-    <t>4.2.0</t>
-  </si>
-  <si>
-    <t>R5 Preview #1 + Connectathon 23 (Sydney).</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>R4B version.</t>
-  </si>
-  <si>
-    <t>4.3.0</t>
-  </si>
-  <si>
-    <t>FHIR Release 4B (Normative + STU).</t>
-  </si>
-  <si>
-    <t>4.3.0-cibuild</t>
-  </si>
-  <si>
-    <t>FHIR Release 4B CI-Builld.</t>
-  </si>
-  <si>
-    <t>4.3.0-snapshot1</t>
-  </si>
-  <si>
-    <t>FHIR Release 4B Snapshot #1.</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>R5 Preview #2 version.</t>
-  </si>
-  <si>
-    <t>4.4.0</t>
-  </si>
-  <si>
-    <t>R5 Preview #2 + Connectathon 24 (Virtual).</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>R5 Preview #3 version.</t>
-  </si>
-  <si>
-    <t>4.5.0</t>
-  </si>
-  <si>
-    <t>R5 Preview #3 + Connectathon 25 (Virtual).</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>R5 Draft Ballot version.</t>
-  </si>
-  <si>
-    <t>4.6.0</t>
-  </si>
-  <si>
-    <t>R5 Draft Ballot + Connectathon 27 (Virtual).</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>R5 Versions.</t>
   </si>
   <si>
     <t>R5 Final Version.</t>
@@ -1518,97 +1521,97 @@
         <v>51</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-FHIR-version.xlsx
+++ b/CodeSystem-FHIR-version.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-snapshot-3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
+    <t>HL7 International / Terminology Infrastructure</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
+    <t>HL7 International / Terminology Infrastructure (http://www.hl7.org/Special/committees/Vocab)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -99,7 +99,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/FHIR-version</t>
+    <t>http://hl7.org/fhir/ValueSet/FHIR-version|4.0.1</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>R5 Versions.</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
   </si>
   <si>
     <t>R5 Final Version.</t>
@@ -1521,97 +1518,97 @@
         <v>51</v>
       </c>
       <c r="B52" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="C53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D55" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D58" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
